--- a/Notatka/Tab/podprobkowanie.xlsx
+++ b/Notatka/Tab/podprobkowanie.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>m</t>
   </si>
@@ -110,20 +110,45 @@
       <t>[Hz]</t>
     </r>
   </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [kHz]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:G27"/>
+  <dimension ref="A5:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,11 +557,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <f>G6/(A6 + 1)</f>
+        <f t="shared" ref="B6:B27" si="0">G6/(A6 + 1)</f>
         <v>3185000</v>
       </c>
       <c r="C6" s="1">
-        <f>F6/A6</f>
+        <f t="shared" ref="C6:C27" si="1">F6/A6</f>
         <v>6070000</v>
       </c>
       <c r="F6">
@@ -551,11 +576,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <f>G7/(A7 + 1)</f>
+        <f t="shared" si="0"/>
         <v>2123333.3333333335</v>
       </c>
       <c r="C7" s="1">
-        <f>F7/A7</f>
+        <f t="shared" si="1"/>
         <v>3035000</v>
       </c>
       <c r="F7">
@@ -570,11 +595,11 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <f>G8/(A8 + 1)</f>
+        <f t="shared" si="0"/>
         <v>1592500</v>
       </c>
       <c r="C8" s="1">
-        <f>F8/A8</f>
+        <f t="shared" si="1"/>
         <v>2023333.3333333333</v>
       </c>
       <c r="F8">
@@ -589,11 +614,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <f>G9/(A9 + 1)</f>
+        <f t="shared" si="0"/>
         <v>1274000</v>
       </c>
       <c r="C9" s="1">
-        <f>F9/A9</f>
+        <f t="shared" si="1"/>
         <v>1517500</v>
       </c>
       <c r="F9">
@@ -608,11 +633,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <f>G10/(A10 + 1)</f>
+        <f t="shared" si="0"/>
         <v>1061666.6666666667</v>
       </c>
       <c r="C10" s="1">
-        <f>F10/A10</f>
+        <f t="shared" si="1"/>
         <v>1214000</v>
       </c>
       <c r="F10">
@@ -627,11 +652,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="1">
-        <f>G11/(A11 + 1)</f>
+        <f t="shared" si="0"/>
         <v>910000</v>
       </c>
       <c r="C11" s="1">
-        <f>F11/A11</f>
+        <f t="shared" si="1"/>
         <v>1011666.6666666666</v>
       </c>
       <c r="F11">
@@ -646,11 +671,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <f>G12/(A12 + 1)</f>
+        <f t="shared" si="0"/>
         <v>796250</v>
       </c>
       <c r="C12" s="1">
-        <f>F12/A12</f>
+        <f t="shared" si="1"/>
         <v>867142.85714285716</v>
       </c>
       <c r="F12">
@@ -665,11 +690,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <f>G13/(A13 + 1)</f>
+        <f t="shared" si="0"/>
         <v>707777.77777777775</v>
       </c>
       <c r="C13" s="1">
-        <f>F13/A13</f>
+        <f t="shared" si="1"/>
         <v>758750</v>
       </c>
       <c r="F13">
@@ -684,11 +709,11 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <f>G14/(A14 + 1)</f>
+        <f t="shared" si="0"/>
         <v>637000</v>
       </c>
       <c r="C14" s="1">
-        <f>F14/A14</f>
+        <f t="shared" si="1"/>
         <v>674444.4444444445</v>
       </c>
       <c r="F14">
@@ -703,11 +728,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="1">
-        <f>G15/(A15 + 1)</f>
+        <f t="shared" si="0"/>
         <v>579090.90909090906</v>
       </c>
       <c r="C15" s="1">
-        <f>F15/A15</f>
+        <f t="shared" si="1"/>
         <v>607000</v>
       </c>
       <c r="F15">
@@ -722,11 +747,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="1">
-        <f>G16/(A16 + 1)</f>
+        <f t="shared" si="0"/>
         <v>530833.33333333337</v>
       </c>
       <c r="C16" s="1">
-        <f>F16/A16</f>
+        <f t="shared" si="1"/>
         <v>551818.18181818177</v>
       </c>
       <c r="F16">
@@ -741,11 +766,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="1">
-        <f>G17/(A17 + 1)</f>
+        <f t="shared" si="0"/>
         <v>490000</v>
       </c>
       <c r="C17" s="1">
-        <f>F17/A17</f>
+        <f t="shared" si="1"/>
         <v>505833.33333333331</v>
       </c>
       <c r="F17">
@@ -760,11 +785,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="1">
-        <f>G18/(A18 + 1)</f>
+        <f t="shared" si="0"/>
         <v>455000</v>
       </c>
       <c r="C18" s="1">
-        <f>F18/A18</f>
+        <f t="shared" si="1"/>
         <v>466923.07692307694</v>
       </c>
       <c r="F18">
@@ -779,11 +804,11 @@
         <v>14</v>
       </c>
       <c r="B19" s="1">
-        <f>G19/(A19 + 1)</f>
+        <f t="shared" si="0"/>
         <v>424666.66666666669</v>
       </c>
       <c r="C19" s="1">
-        <f>F19/A19</f>
+        <f t="shared" si="1"/>
         <v>433571.42857142858</v>
       </c>
       <c r="F19">
@@ -798,11 +823,11 @@
         <v>15</v>
       </c>
       <c r="B20" s="1">
-        <f>G20/(A20 + 1)</f>
+        <f t="shared" si="0"/>
         <v>398125</v>
       </c>
       <c r="C20" s="1">
-        <f>F20/A20</f>
+        <f t="shared" si="1"/>
         <v>404666.66666666669</v>
       </c>
       <c r="F20">
@@ -817,11 +842,11 @@
         <v>16</v>
       </c>
       <c r="B21" s="1">
-        <f>G21/(A21 + 1)</f>
+        <f t="shared" si="0"/>
         <v>374705.8823529412</v>
       </c>
       <c r="C21" s="1">
-        <f>F21/A21</f>
+        <f t="shared" si="1"/>
         <v>379375</v>
       </c>
       <c r="F21">
@@ -836,11 +861,11 @@
         <v>17</v>
       </c>
       <c r="B22" s="1">
-        <f>G22/(A22 + 1)</f>
+        <f t="shared" si="0"/>
         <v>353888.88888888888</v>
       </c>
       <c r="C22" s="1">
-        <f>F22/A22</f>
+        <f t="shared" si="1"/>
         <v>357058.82352941175</v>
       </c>
       <c r="F22">
@@ -855,11 +880,11 @@
         <v>18</v>
       </c>
       <c r="B23" s="1">
-        <f>G23/(A23 + 1)</f>
+        <f t="shared" si="0"/>
         <v>335263.15789473685</v>
       </c>
       <c r="C23" s="1">
-        <f>F23/A23</f>
+        <f t="shared" si="1"/>
         <v>337222.22222222225</v>
       </c>
       <c r="F23">
@@ -874,11 +899,11 @@
         <v>19</v>
       </c>
       <c r="B24" s="1">
-        <f>G24/(A24 + 1)</f>
+        <f t="shared" si="0"/>
         <v>318500</v>
       </c>
       <c r="C24" s="1">
-        <f>F24/A24</f>
+        <f t="shared" si="1"/>
         <v>319473.68421052629</v>
       </c>
       <c r="F24">
@@ -893,11 +918,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="1">
-        <f>G25/(A25 + 1)</f>
+        <f t="shared" si="0"/>
         <v>303333.33333333331</v>
       </c>
       <c r="C25" s="1">
-        <f>F25/A25</f>
+        <f t="shared" si="1"/>
         <v>303500</v>
       </c>
       <c r="F25">
@@ -912,11 +937,11 @@
         <v>21</v>
       </c>
       <c r="B26" s="4">
-        <f>G26/(A26 + 1)</f>
+        <f t="shared" si="0"/>
         <v>289545.45454545453</v>
       </c>
       <c r="C26" s="4">
-        <f>F26/A26</f>
+        <f t="shared" si="1"/>
         <v>289047.61904761905</v>
       </c>
       <c r="F26">
@@ -931,11 +956,11 @@
         <v>22</v>
       </c>
       <c r="B27" s="4">
-        <f>G27/(A27 + 1)</f>
+        <f t="shared" si="0"/>
         <v>276956.52173913043</v>
       </c>
       <c r="C27" s="4">
-        <f>F27/A27</f>
+        <f t="shared" si="1"/>
         <v>275909.09090909088</v>
       </c>
       <c r="F27">
@@ -943,6 +968,126 @@
       </c>
       <c r="G27">
         <v>6370000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Notatka/Tab/podprobkowanie.xlsx
+++ b/Notatka/Tab/podprobkowanie.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>m</t>
   </si>
@@ -143,11 +143,50 @@
       <t xml:space="preserve"> [kHz]</t>
     </r>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t>Δf</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Hz]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +281,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:G45"/>
+  <dimension ref="A5:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,6 +1141,50 @@
         <v>400</v>
       </c>
     </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B51" s="5">
+        <f>319000/A51</f>
+        <v>311.5234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2048</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" ref="B52:B54" si="2">319000/A52</f>
+        <v>155.76171875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>4096</v>
+      </c>
+      <c r="B53" s="7">
+        <f t="shared" si="2"/>
+        <v>77.880859375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>8192</v>
+      </c>
+      <c r="B54" s="8">
+        <f t="shared" si="2"/>
+        <v>38.9404296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Notatka/Tab/podprobkowanie.xlsx
+++ b/Notatka/Tab/podprobkowanie.xlsx
@@ -29,6 +29,113 @@
     <t>m</t>
   </si>
   <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [kHz]</t>
+    </r>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t>Δf</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Hz]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s_min</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(m) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[kHz]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>f</t>
     </r>
@@ -66,114 +173,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Hz]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s_min</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(m) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hz]</t>
-    </r>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [kHz]</t>
-    </r>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <r>
-      <t>Δf</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [Hz]</t>
+      <t>[kHz]</t>
     </r>
   </si>
 </sst>
@@ -181,11 +181,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -269,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,16 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +571,7 @@
   <dimension ref="A5:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="A50" sqref="A50:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,12 +596,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B27" si="0">G6/(A6 + 1)</f>
-        <v>3185000</v>
+        <f>(G6/(A6 + 1))/1000</f>
+        <v>3185</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C27" si="1">F6/A6</f>
-        <v>6070000</v>
+        <f>(F6/A6)/1000</f>
+        <v>6070</v>
       </c>
       <c r="F6">
         <v>6070000</v>
@@ -627,12 +615,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>2123333.3333333335</v>
+        <f t="shared" ref="B7:B27" si="0">(G7/(A7 + 1))/1000</f>
+        <v>2123.3333333333335</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>3035000</v>
+        <f t="shared" ref="C7:C27" si="1">(F7/A7)/1000</f>
+        <v>3035</v>
       </c>
       <c r="F7">
         <v>6070000</v>
@@ -647,11 +635,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>1592500</v>
+        <v>1592.5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>2023333.3333333333</v>
+        <v>2023.3333333333333</v>
       </c>
       <c r="F8">
         <v>6070000</v>
@@ -666,11 +654,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>1274000</v>
+        <v>1274</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>1517500</v>
+        <v>1517.5</v>
       </c>
       <c r="F9">
         <v>6070000</v>
@@ -685,11 +673,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>1061666.6666666667</v>
+        <v>1061.6666666666667</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>1214000</v>
+        <v>1214</v>
       </c>
       <c r="F10">
         <v>6070000</v>
@@ -704,11 +692,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>910000</v>
+        <v>910</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>1011666.6666666666</v>
+        <v>1011.6666666666666</v>
       </c>
       <c r="F11">
         <v>6070000</v>
@@ -723,11 +711,11 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>796250</v>
+        <v>796.25</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>867142.85714285716</v>
+        <v>867.14285714285711</v>
       </c>
       <c r="F12">
         <v>6070000</v>
@@ -742,11 +730,11 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>707777.77777777775</v>
+        <v>707.77777777777771</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>758750</v>
+        <v>758.75</v>
       </c>
       <c r="F13">
         <v>6070000</v>
@@ -761,11 +749,11 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>637000</v>
+        <v>637</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>674444.4444444445</v>
+        <v>674.44444444444446</v>
       </c>
       <c r="F14">
         <v>6070000</v>
@@ -780,11 +768,11 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>579090.90909090906</v>
+        <v>579.09090909090901</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>607000</v>
+        <v>607</v>
       </c>
       <c r="F15">
         <v>6070000</v>
@@ -799,11 +787,11 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>530833.33333333337</v>
+        <v>530.83333333333337</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>551818.18181818177</v>
+        <v>551.81818181818176</v>
       </c>
       <c r="F16">
         <v>6070000</v>
@@ -818,11 +806,11 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>490000</v>
+        <v>490</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>505833.33333333331</v>
+        <v>505.83333333333331</v>
       </c>
       <c r="F17">
         <v>6070000</v>
@@ -837,11 +825,11 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>455000</v>
+        <v>455</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>466923.07692307694</v>
+        <v>466.92307692307696</v>
       </c>
       <c r="F18">
         <v>6070000</v>
@@ -856,11 +844,11 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>424666.66666666669</v>
+        <v>424.66666666666669</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>433571.42857142858</v>
+        <v>433.57142857142856</v>
       </c>
       <c r="F19">
         <v>6070000</v>
@@ -875,11 +863,11 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>398125</v>
+        <v>398.125</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>404666.66666666669</v>
+        <v>404.66666666666669</v>
       </c>
       <c r="F20">
         <v>6070000</v>
@@ -894,11 +882,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>374705.8823529412</v>
+        <v>374.70588235294122</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>379375</v>
+        <v>379.375</v>
       </c>
       <c r="F21">
         <v>6070000</v>
@@ -913,11 +901,11 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>353888.88888888888</v>
+        <v>353.88888888888886</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>357058.82352941175</v>
+        <v>357.05882352941177</v>
       </c>
       <c r="F22">
         <v>6070000</v>
@@ -932,11 +920,11 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>335263.15789473685</v>
+        <v>335.26315789473688</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>337222.22222222225</v>
+        <v>337.22222222222223</v>
       </c>
       <c r="F23">
         <v>6070000</v>
@@ -951,11 +939,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>318500</v>
+        <v>318.5</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>319473.68421052629</v>
+        <v>319.4736842105263</v>
       </c>
       <c r="F24">
         <v>6070000</v>
@@ -970,11 +958,11 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>303333.33333333331</v>
+        <v>303.33333333333331</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>303500</v>
+        <v>303.5</v>
       </c>
       <c r="F25">
         <v>6070000</v>
@@ -988,12 +976,12 @@
         <v>21</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>289545.45454545453</v>
+        <f>(G26/(A26 + 1))/1000</f>
+        <v>289.5454545454545</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>289047.61904761905</v>
+        <v>289.04761904761904</v>
       </c>
       <c r="F26">
         <v>6070000</v>
@@ -1008,11 +996,11 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>276956.52173913043</v>
+        <v>276.95652173913044</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>275909.09090909088</v>
+        <v>275.90909090909088</v>
       </c>
       <c r="F27">
         <v>6070000</v>
@@ -1023,10 +1011,10 @@
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,10 +1131,10 @@
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,35 +1142,35 @@
         <v>1024</v>
       </c>
       <c r="B51" s="5">
-        <f>319000/A51</f>
-        <v>311.5234375</v>
+        <f>400000/A51</f>
+        <v>390.625</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2048</v>
       </c>
-      <c r="B52" s="6">
-        <f t="shared" ref="B52:B54" si="2">319000/A52</f>
-        <v>155.76171875</v>
+      <c r="B52" s="5">
+        <f t="shared" ref="B52:B54" si="2">400000/A52</f>
+        <v>195.3125</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>4096</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <f t="shared" si="2"/>
-        <v>77.880859375</v>
+        <v>97.65625</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>8192</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="5">
         <f t="shared" si="2"/>
-        <v>38.9404296875</v>
+        <v>48.828125</v>
       </c>
     </row>
   </sheetData>
